--- a/LuBan/cfgs/Datas/商店首充表.xlsx
+++ b/LuBan/cfgs/Datas/商店首充表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17925"/>
+    <workbookView windowWidth="15345" windowHeight="24975"/>
   </bookViews>
   <sheets>
     <sheet name="首充" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -104,7 +104,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>A001</t>
+    <t>com.backpack.6</t>
   </si>
   <si>
     <t>46,10|5,200</t>
@@ -116,7 +116,7 @@
     <t>4,100|15,5</t>
   </si>
   <si>
-    <t>A002</t>
+    <t>com.backpack.30.2</t>
   </si>
   <si>
     <t>46,45|5,150</t>
@@ -125,7 +125,7 @@
     <t>4,200|16,5</t>
   </si>
   <si>
-    <t>A003</t>
+    <t>com.backpack.68.2</t>
   </si>
   <si>
     <t>46,150|5,400</t>
@@ -1146,7 +1146,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1306,15 +1306,9 @@
       <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1332,15 +1326,9 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1359,7 +1347,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>1.99</v>
+        <v>3.99</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>29</v>
@@ -1384,15 +1372,9 @@
       <c r="E9" s="2">
         <v>30</v>
       </c>
-      <c r="F9" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1410,15 +1392,9 @@
       <c r="E10" s="2">
         <v>30</v>
       </c>
-      <c r="F10" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1437,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="F11" s="2">
-        <v>2.99</v>
+        <v>9.99</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>32</v>
@@ -1462,15 +1438,9 @@
       <c r="E12" s="2">
         <v>68</v>
       </c>
-      <c r="F12" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1488,15 +1458,9 @@
       <c r="E13" s="2">
         <v>68</v>
       </c>
-      <c r="F13" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
         <v>34</v>
       </c>
